--- a/data/long_razon/P18_4-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_4-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-64,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>162,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-33,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-84,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>121,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-74,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>139,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-21,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-79,3; -47,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,93; 465,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-60,48; 10,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-91,58; -71,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,39; 267,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,91; 32,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-82,52; -64,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>65,95; 247,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 5,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-78,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>188,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-56,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>90,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-68,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>135,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-23,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-89,46; -65,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,48; 437,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,08; 36,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-72,64; -35,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,57; 199,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,15; -5,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-77,18; -56,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,27; 261,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,63; 0,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-47,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-57,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>73,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-52,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-69,43; -1,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 50,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 46,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-70,72; -41,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,18; 137,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 35,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,74; -30,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 71,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 24,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-62,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-65,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-64,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-74,21; -48,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 113,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 68,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,22; -50,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 114,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 10,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,95; -53,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,58; 93,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 22,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-78,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-49,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-65,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-86,29; -64,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,68; 187,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 40,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-64,55; -30,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,51; 176,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 68,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-73,83; -54,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,14; 139,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 40,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-65,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>49,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-79,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-73,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-79,28; -43,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 148,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 63,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-88,15; -65,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,46; 22,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 80,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-81,24; -62,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 46,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 53,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-65,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>67,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-66,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-66,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>61,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-71,95; -56,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,67; 107,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 13,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-72,09; -61,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,89; 80,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 10,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-70,53; -61,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,23; 84,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 6,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
